--- a/PA1/User Stories.xlsx
+++ b/PA1/User Stories.xlsx
@@ -12,7 +12,13 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="45">
+  <si>
+    <t>Timestamp</t>
+  </si>
+  <si>
+    <t>Untitled Question</t>
+  </si>
   <si>
     <t>Priority</t>
   </si>
@@ -20,13 +26,7 @@
     <t>Nº</t>
   </si>
   <si>
-    <t>Timestamp</t>
-  </si>
-  <si>
-    <t>Untitled Question</t>
-  </si>
-  <si>
-    <t>Como &lt;&lt;tipo de usuario&gt;&gt;</t>
+    <t>Como/Enquanto &lt;&lt;tipo de usuario&gt;&gt;</t>
   </si>
   <si>
     <t>gostaria de &lt;&lt;realizar uma tarefa&gt;&gt;</t>
@@ -44,22 +44,28 @@
     <t>testeXxx</t>
   </si>
   <si>
+    <t>High</t>
+  </si>
+  <si>
     <t>Como uma pessoa que gosto sair</t>
   </si>
   <si>
-    <t>gostaria de saber aonde está rolando as melhores balada da cidade</t>
-  </si>
-  <si>
-    <t>para que eu curtir em um bom lugar</t>
+    <t>gostaria de saber aonde está rolando os melhores eventos da cidade</t>
+  </si>
+  <si>
+    <t xml:space="preserve">para que eu curta em um lugar onde eu me sinta a vontade </t>
+  </si>
+  <si>
+    <t>Medium</t>
   </si>
   <si>
     <t>gostaria de saber se alguém da minha rede social esta no lugar que eu estou</t>
   </si>
   <si>
-    <t>para que eu possa conhecê-la melhor</t>
-  </si>
-  <si>
-    <t>gostaria de comentar sobre o lugar em eu estou</t>
+    <t>para que eu possa interagir pessoalmente com as mesmas</t>
+  </si>
+  <si>
+    <t>gostaria de comentar e se possivel, avaliar o lugar onde estou</t>
   </si>
   <si>
     <t>para que eu aprove ou desaprove o ambiente</t>
@@ -68,7 +74,10 @@
     <t>gostaria de convidar amigos meus para virem até o lugar onde estou</t>
   </si>
   <si>
-    <t>para que curtir com eles</t>
+    <t>para que eu possa curtir o ambiente com eles</t>
+  </si>
+  <si>
+    <t>Low</t>
   </si>
   <si>
     <t>gostaria de saber os preços do cardápio antes de ir até o lacal</t>
@@ -87,28 +96,75 @@
   </si>
   <si>
     <t>para que eu possa iniciar um relacionamento com essa pessoa</t>
+  </si>
+  <si>
+    <t>gostaria de saber se tem e quais atrações vai ocorrer no estabelecimento</t>
+  </si>
+  <si>
+    <t>para que eu sabia se essa atrações é de meu interesse</t>
+  </si>
+  <si>
+    <t>gostaria de saber a avaliações de qualidade do estabelecimento</t>
+  </si>
+  <si>
+    <t>para que eu possa decidir para onde eu va</t>
+  </si>
+  <si>
+    <t>Enquanto proprietário do estabelecimento</t>
+  </si>
+  <si>
+    <t>gostaria de divulgar o meu estabelecimento</t>
+  </si>
+  <si>
+    <t>para que gere demanda a mais para o local</t>
+  </si>
+  <si>
+    <t>gostaria de um chat para me comunicar com potenciais clientes</t>
+  </si>
+  <si>
+    <t>para que cada potencial cliente seja um efetivo cliente</t>
+  </si>
+  <si>
+    <t>gostaria de disponibilizar promoções</t>
+  </si>
+  <si>
+    <t>para atrair mais pessoais pessoas ao meu estabelecimento</t>
+  </si>
+  <si>
+    <t>gostaria de saber o que as pessoas estão achando do local</t>
+  </si>
+  <si>
+    <t>para que possa alinhar as expectativas dela para com a empresa</t>
+  </si>
+  <si>
+    <t>gostaria de disponibilizar os principais produtos vendidos</t>
+  </si>
+  <si>
+    <t>para que gere demanda para o meu estabelecimento</t>
+  </si>
+  <si>
+    <t>gostaria de criar eventos a partir de uma demanda</t>
+  </si>
+  <si>
+    <t>para que gere receita ao meu estabelecimento</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="4">
+  <fonts count="3">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
+    <font/>
     <font>
       <b/>
       <sz val="12.0"/>
       <name val="Trebuchet MS"/>
     </font>
-    <font>
-      <sz val="12.0"/>
-      <name val="Trebuchet MS"/>
-    </font>
-    <font/>
   </fonts>
   <fills count="3">
     <fill>
@@ -130,23 +186,20 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" wrapText="0"/>
     </xf>
   </cellXfs>
@@ -180,10 +233,10 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>3</v>
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -198,7 +251,7 @@
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="9.0"/>
+    <col customWidth="1" min="1" max="1" width="10.57"/>
     <col customWidth="1" min="2" max="2" width="3.57"/>
     <col customWidth="1" min="3" max="3" width="38.71"/>
     <col customWidth="1" min="4" max="4" width="65.14"/>
@@ -207,160 +260,270 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
+      <c r="A1" s="2" t="s">
+        <v>2</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="I1" s="4"/>
-      <c r="J1" s="4"/>
-      <c r="K1" s="4"/>
-      <c r="L1" s="4"/>
-      <c r="M1" s="4"/>
-      <c r="N1" s="4"/>
-      <c r="O1" s="4"/>
-      <c r="P1" s="4"/>
-      <c r="Q1" s="4"/>
-      <c r="R1" s="4"/>
-      <c r="S1" s="4"/>
-      <c r="T1" s="4"/>
-      <c r="U1" s="4"/>
-      <c r="V1" s="4"/>
-      <c r="W1" s="4"/>
-      <c r="X1" s="4"/>
-      <c r="Y1" s="4"/>
-      <c r="Z1" s="4"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="3"/>
+      <c r="L1" s="3"/>
+      <c r="M1" s="3"/>
+      <c r="N1" s="3"/>
+      <c r="O1" s="3"/>
+      <c r="P1" s="3"/>
+      <c r="Q1" s="3"/>
+      <c r="R1" s="3"/>
+      <c r="S1" s="3"/>
+      <c r="T1" s="3"/>
+      <c r="U1" s="3"/>
+      <c r="V1" s="3"/>
+      <c r="W1" s="3"/>
+      <c r="X1" s="3"/>
+      <c r="Y1" s="3"/>
+      <c r="Z1" s="3"/>
     </row>
     <row r="2">
-      <c r="A2" s="3"/>
-      <c r="B2" s="3">
-        <v>1.0</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E2" s="3" t="s">
+      <c r="A2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>12</v>
       </c>
+      <c r="E2" s="1" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="3">
-      <c r="B3" s="3">
-        <f t="shared" ref="B3:B8" si="1">B2+1</f>
-        <v>2</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E3" s="3" t="s">
+      <c r="A3" s="1" t="s">
         <v>14</v>
       </c>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="4">
-      <c r="B4" s="3">
-        <f t="shared" si="1"/>
-        <v>3</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>16</v>
+      <c r="A4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="5">
-      <c r="B5" s="3">
-        <f t="shared" si="1"/>
-        <v>4</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>18</v>
+      <c r="A5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="6">
-      <c r="B6" s="3">
-        <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>20</v>
+      <c r="A6" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="7">
-      <c r="B7" s="3">
-        <f t="shared" si="1"/>
-        <v>6</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D7" s="3" t="s">
+      <c r="A7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="9" ht="18.0" customHeight="1">
+      <c r="A9" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="E7" s="5" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="B8" s="3">
-        <f t="shared" si="1"/>
-        <v>7</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="B9" s="3"/>
+      <c r="C16" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>44</v>
+      </c>
     </row>
   </sheetData>
   <dataValidations>
-    <dataValidation type="list" allowBlank="1" sqref="A2:A1000">
+    <dataValidation type="list" allowBlank="1" sqref="A2:A1001">
       <formula1>"High,Medium,Low"</formula1>
     </dataValidation>
   </dataValidations>
